--- a/excelFile/UseGit.xlsx
+++ b/excelFile/UseGit.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D6471C-E2F5-4C29-8C7C-42A63F330733}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13596EE5-2CB1-497E-9C8C-9B89A83457AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="创建，推送" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +58,233 @@
   </si>
   <si>
     <t>输入 git commit -m “注释“ //这句命令是将修改提交到本地仓库</t>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创建SSH KEY。先看一下你C盘用户目录下有没有.ssh目录，有的话看下里面有没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="&amp;quot"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_rsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="&amp;quot"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_rsa.pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>这两个文件，有就跳到下一步，没有就通过下面命令创建</t>
+    </r>
+  </si>
+  <si>
+    <t>$ ssh-keygen -t rsa -C "youremail@example.com"</t>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Github上创建一个Git仓库。</t>
+  </si>
+  <si>
+    <t>登录Github,找到右上角的图标，打开点进里面的Settings，再选中里面的SSH and GPG KEYS，点击右上角的New SSH key，然后Title里面随便填，再把刚才id_rsa.pub里面的内容复制到Title下面的Key内容框里面，最后点击Add SSH key，这样就完成了SSH Key的加密。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Github上创建好Git仓库之后我们就可以和本地仓库进行关联了</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">git remote add origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ssh    Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联好之后我们就可以把本地库的所有内容推送到远程仓库（也就是Github）上了，通过：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push -u origin master</t>
+    </r>
+  </si>
+  <si>
+    <t>(由于新建的远程仓库是空的，所以要加上-u这个参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push origin master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等远程仓库里面有了内容之后，下次再从本地库上传内容的时候只需下面这样就可以了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过以下命令先将内容合并以下：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git pull --rebase origin master</t>
+    </r>
+  </si>
+  <si>
+    <t>创建本地仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地仓库与远程仓库合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地仓库向远程仓库推送文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程仓库向本地仓库更新文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +304,72 @@
       <color rgb="FF4F4F4F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC0000"/>
+      <name val="&amp;quot"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="&amp;quot"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383A42"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383A42"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -112,10 +398,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,62 +687,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="7"/>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15">
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+    <row r="15" spans="2:4" ht="15">
+      <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D7" s="2" t="s">
+    <row r="16" spans="2:4" ht="15">
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+    <row r="18" spans="2:4" ht="15">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
+    <row r="19" spans="2:4" ht="15">
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="21" spans="2:4" ht="15">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15">
+      <c r="D31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="15">
+      <c r="D34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="15">
+      <c r="D36" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="C37" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="15">
+      <c r="D38" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/UseGit.xlsx
+++ b/excelFile/UseGit.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13596EE5-2CB1-497E-9C8C-9B89A83457AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C39CB2-EC2D-47B6-952C-3E5419D922D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="创建，推送" sheetId="1" r:id="rId1"/>
+    <sheet name="一览" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,109 @@
   </si>
   <si>
     <t>远程仓库向本地仓库更新文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★★★★★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改本地文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交到本地仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.本地文件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行git status  , 会发现未上传更新的文件呈现红色，再次执行git add .  , 再次执行git status ， 发现文件都上传呈现绿色</t>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "提示内容" </t>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git push </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> origin master  </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ -u：新建远程仓库时使用，更新时不需要！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交到远程仓库上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以先查看一下当前所在分支</t>
+  </si>
+  <si>
+    <t>git branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建本地分支并切换到新创建的分支</t>
+  </si>
+  <si>
+    <t>git checkout -b [new branch name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新创建的分支信息推送到github</t>
+  </si>
+  <si>
+    <t>git push origin HEAD -u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +387,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +473,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -407,6 +522,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -687,187 +803,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="1" t="s">
+    <row r="3" spans="2:5">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="7"/>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="2:5">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="7"/>
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="2:5">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="7"/>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="2:5">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="2:5">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="7"/>
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="2:5">
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="2:5">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:5" ht="15">
+      <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:5" ht="15">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15">
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="4:6" ht="15">
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="4:6" ht="15">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15">
-      <c r="D19" s="2" t="s">
+    <row r="20" spans="4:6" ht="15">
+      <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="4:6" ht="15">
+      <c r="D22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="4:6">
+      <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
-      <c r="D24" s="1" t="s">
+    <row r="25" spans="4:6">
+      <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="4:6">
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="4:6">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="4:6">
+      <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15">
-      <c r="D31" s="4" t="s">
+    <row r="32" spans="4:6" ht="15">
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:17">
+      <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="15">
-      <c r="D34" s="4" t="s">
+    <row r="35" spans="2:17" ht="15">
+      <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
-      <c r="C35" s="5" t="s">
+    <row r="36" spans="2:17">
+      <c r="E36" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15">
-      <c r="D36" s="4" t="s">
+    <row r="37" spans="2:17" ht="15">
+      <c r="F37" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
-      <c r="C37" s="6" t="s">
+    <row r="38" spans="2:17">
+      <c r="E38" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="15">
-      <c r="D38" s="4" t="s">
+    <row r="39" spans="2:17" ht="15">
+      <c r="F39" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="C44" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="D47" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="D51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="D53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="D55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="E56" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="D62" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="D64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="F65" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="D67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="F68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="D70" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="F71" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="D73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="F74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/UseGit.xlsx
+++ b/excelFile/UseGit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C39CB2-EC2D-47B6-952C-3E5419D922D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DAD727-1C40-415E-9145-0F825D134BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,6 +380,22 @@
   </si>
   <si>
     <t>git push origin HEAD -u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改新分支下的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件提交到新分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新分支合并到主分支上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,9 +819,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q77"/>
+  <dimension ref="B2:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="AB76" sqref="AB76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
   <cols>
@@ -1119,6 +1137,26 @@
         <v>36</v>
       </c>
     </row>
+    <row r="78" spans="2:6">
+      <c r="C78" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="C80" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFile/UseGit.xlsx
+++ b/excelFile/UseGit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DAD727-1C40-415E-9145-0F825D134BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D2D3C-54C2-4095-9F61-4C63C1E93204}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,47 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>创建SSH KEY。先看一下你C盘用户目录下有没有.ssh目录，有的话看下里面有没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="&amp;quot"/>
-        <family val="2"/>
-      </rPr>
-      <t>id_rsa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFCC0000"/>
-        <rFont val="&amp;quot"/>
-        <family val="2"/>
-      </rPr>
-      <t>id_rsa.pub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4F4F4F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>这两个文件，有就跳到下一步，没有就通过下面命令创建</t>
-    </r>
-  </si>
-  <si>
     <t>$ ssh-keygen -t rsa -C "youremail@example.com"</t>
   </si>
   <si>
@@ -130,50 +89,6 @@
     <t>在Github上创建好Git仓库之后我们就可以和本地仓库进行关联了</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">git remote add origin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ssh    Path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,75 +96,11 @@
     <t>关联好之后我们就可以把本地库的所有内容推送到远程仓库（也就是Github）上了，通过：</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>git push -u origin master</t>
-    </r>
-  </si>
-  <si>
     <t>(由于新建的远程仓库是空的，所以要加上-u这个参数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>git push origin master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等远程仓库里面有了内容之后，下次再从本地库上传内容的时候只需下面这样就可以了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过以下命令先将内容合并以下：</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>git pull --rebase origin master</t>
-    </r>
   </si>
   <si>
     <t>创建本地仓库</t>
@@ -398,12 +249,284 @@
     <t>将新分支合并到主分支上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>提交本地分支到远程仓库</t>
+  </si>
+  <si>
+    <t>提交本地分支到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建本地分支与远程分支关联</t>
+  </si>
+  <si>
+    <t>新建本地分支与远程分支关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建本地分支并切换</t>
+  </si>
+  <si>
+    <t>git branch -b [new branch name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin  [local branch name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --set-upstream-to=origin/[remote branch name] [local branch name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先创建一个新分支提交改动</t>
+  </si>
+  <si>
+    <t>$ git branch newbranch</t>
+  </si>
+  <si>
+    <t>然后输入这条命令检查是否创建成功</t>
+  </si>
+  <si>
+    <t>$ git branch</t>
+  </si>
+  <si>
+    <t>切换工作分支</t>
+  </si>
+  <si>
+    <t>$ git checkout newbranch</t>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件提交到新的分支上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要回主分支</t>
+  </si>
+  <si>
+    <t>$ git checkout master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新分支提交的改动合并到主分支上</t>
+  </si>
+  <si>
+    <t>$ git merge newbranch</t>
+  </si>
+  <si>
+    <t>7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将主分支的内容推送到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git push origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git branch -D newbranch</t>
+  </si>
+  <si>
+    <t>删除这个分支（如果想保留分支只是想删除已经合并的部分只要把大写的D改成小写的d就行了。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>创建SSH KEY。先看一下你C盘用户目录下有没有.ssh目录，有的话看下里面有没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="&amp;quot"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_rsa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCC0000"/>
+        <rFont val="&amp;quot"/>
+        <family val="2"/>
+      </rPr>
+      <t>id_rsa.pub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>这两个文件，有就跳到下一步，没有就通过下面命令创建</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">git remote add origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ssh    Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push -u origin master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等远程仓库里面有了内容之后，下次再从本地库上传内容的时候只需下面这样就可以了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push origin master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF383A42"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git pull --rebase origin master</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,71 +542,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF4F4F4F"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFCC0000"/>
-      <name val="&amp;quot"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF008080"/>
-      <name val="&amp;quot"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF383A42"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF383A42"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F2F2F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -492,15 +564,82 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="&amp;quot"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="&amp;quot"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF383A42"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF383A42"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -529,16 +668,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -819,342 +959,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q81"/>
+  <dimension ref="B2:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="AB76" sqref="AB76"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="1"/>
+    <col min="1" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="C3" s="7"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="F32" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="D34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="F35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="E36" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="F37" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="E38" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="F39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="C43" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="C44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="C45" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="D47" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="D51" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="C9" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="D53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="D55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="E56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="D62" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="D12" s="7" t="s">
+    <row r="64" spans="2:5">
+      <c r="D64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="F65" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="D67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="F68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="D70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="F71" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="D73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="F74" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="15">
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" ht="15">
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" ht="15">
-      <c r="F20" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" ht="15">
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="D31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" ht="15">
-      <c r="F32" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17">
-      <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="15">
-      <c r="F35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="E36" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="15">
-      <c r="F37" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="E38" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="15">
-      <c r="F39" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="C44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="D47" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="D49" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="D51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="8" t="s">
+    <row r="78" spans="2:6">
+      <c r="C78" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="C79" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="C80" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="E86" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="C88" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="E89" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="E92" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="C94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="E95" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="E96" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="C98" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="E99" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="C101" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="E102" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="C105" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="E106" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="C108" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="E109" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="C112" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="D53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="D55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="E56" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="C59" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="C60" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="D62" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="D64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="F65" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="D67" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="F68" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="D70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="F71" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="D73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="1" t="s">
+    <row r="113" spans="3:5">
+      <c r="C113" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5">
+      <c r="C114" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5">
+      <c r="C116" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5">
+      <c r="C118" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5">
+      <c r="E119" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5">
+      <c r="C121" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
-      <c r="F74" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="C78" s="1" t="s">
+    <row r="122" spans="3:5">
+      <c r="E122" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5">
+      <c r="C124" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="C79" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="C80" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="1" t="s">
-        <v>61</v>
+    <row r="125" spans="3:5">
+      <c r="E125" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/UseGit.xlsx
+++ b/excelFile/UseGit.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AA675B-E644-4094-AFB7-053F2A6FAD8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25399612-128B-41D8-8B50-4D8377CF1CED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="1" r:id="rId1"/>
     <sheet name="其他命令" sheetId="2" r:id="rId2"/>
     <sheet name="模板图" sheetId="3" r:id="rId3"/>
+    <sheet name="git共享仓库" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="232">
   <si>
     <t>1.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,6 +907,102 @@
   </si>
   <si>
     <t>git checkout HEAD -- files 回滚到复制最后一次提交。</t>
+  </si>
+  <si>
+    <t>创建文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目中，初始化仓库，添加版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch test.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git add . </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建共享仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone --bare ../../testgit/user1/project/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从共享仓库中clone代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone ../../repository/project.git/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加内容并提交到本地仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.更新最新的版本到本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull ../../repository/project.git/ master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "test02"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B.提交,推送到最新的版本到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push ../../../repository/preject.git/ master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再一次更新最新的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull ../../../repository/project.git/ master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "test01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2975,6 +3072,467 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934C5323-F030-4F30-A819-FCE3E25657FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="66246" b="24527"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="31546800"/>
+          <a:ext cx="6172200" cy="7762875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AE0A4F-C9FA-4C8B-ABEC-B93FC80DDCFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect r="71976" b="61106"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="2990850"/>
+          <a:ext cx="5124450" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{615D310D-0E6D-4012-813B-47D0C7341751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="81248" b="66107"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="7962901"/>
+          <a:ext cx="3429000" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A6C4BE-EE66-4A7D-8E7C-122B5BD76D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="1" r="78852" b="72774"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="12306300"/>
+          <a:ext cx="3867150" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF7B1EC-4F53-4764-B5CD-B9B76E463B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect r="66558" b="72219"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="16106775"/>
+          <a:ext cx="6115050" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F55285-2CB8-4000-8244-307A82C790B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect r="65985" b="3970"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="20688300"/>
+          <a:ext cx="6219825" cy="9877425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D27D23-C607-4224-AC0D-409B721FE9D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="20897850"/>
+          <a:ext cx="3819525" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810FA597-252B-4D4F-84D7-2252CB77A916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="28736925"/>
+          <a:ext cx="4772025" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF6F2E-DAF1-4547-B575-30F2A824B942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="35051999"/>
+          <a:ext cx="5019675" cy="3724276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11673,6 +12231,166 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DBCF26-41E0-41D2-A456-2D51AB80C563}">
+  <dimension ref="C2:E173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="E4" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="E5" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="E6" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="E8" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="E12" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="E13" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="E14" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="E15" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="E16" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="D43" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="D67" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="D88" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" ht="15.75" customHeight="1"/>
+    <row r="90" spans="3:5" ht="15.75" customHeight="1">
+      <c r="E90" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="15.75" customHeight="1"/>
+    <row r="109" spans="4:5">
+      <c r="D109" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="E111" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="E112" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5">
+      <c r="C171" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5">
+      <c r="E173" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>